--- a/data_2nd_round/Supplementary Table 1_plusNewData.xlsx
+++ b/data_2nd_round/Supplementary Table 1_plusNewData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab Admin\Documents\GitHub\larval_olfaction\data_2nd_round\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="45" windowWidth="24720" windowHeight="12330"/>
+    <workbookView xWindow="2340" yWindow="45" windowWidth="24720" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3867" uniqueCount="189">
   <si>
     <t>Odor</t>
   </si>
@@ -563,11 +568,32 @@
   <si>
     <t>NaN</t>
   </si>
+  <si>
+    <t>run101_L</t>
+  </si>
+  <si>
+    <t>run102_L</t>
+  </si>
+  <si>
+    <t>run103_L</t>
+  </si>
+  <si>
+    <t>run104_L</t>
+  </si>
+  <si>
+    <t>run105_L</t>
+  </si>
+  <si>
+    <t>run106_L</t>
+  </si>
+  <si>
+    <t>or22c/methyl salicylate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -603,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -616,6 +642,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,7 +703,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -709,9 +736,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -744,6 +788,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -922,9 +983,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC1194" sqref="AC1194"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A784" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C789" sqref="C789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -89451,12 +89512,264 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="B2">
+        <v>0.52836271698369297</v>
+      </c>
+      <c r="C2">
+        <v>0.101782387178684</v>
+      </c>
+      <c r="D2">
+        <v>0.163262441014592</v>
+      </c>
+      <c r="E2">
+        <v>0.138902424753691</v>
+      </c>
+      <c r="F2">
+        <v>1.4536215482678699E-3</v>
+      </c>
+      <c r="G2">
+        <v>8.1214879452363803E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.1584424374458</v>
+      </c>
+      <c r="I2">
+        <v>0.14453199566029501</v>
+      </c>
+      <c r="J2">
+        <v>0.11292618810242901</v>
+      </c>
+      <c r="K2">
+        <v>4.2030761854306098E-2</v>
+      </c>
+      <c r="L2">
+        <v>0.145080415488022</v>
+      </c>
+      <c r="M2">
+        <v>0.156447348810547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="B3">
+        <v>0.55738437434600896</v>
+      </c>
+      <c r="C3">
+        <v>0.16982417956877599</v>
+      </c>
+      <c r="D3">
+        <v>0.30019167571563199</v>
+      </c>
+      <c r="E3">
+        <v>0.25639373123536102</v>
+      </c>
+      <c r="F3">
+        <v>3.94607485036612E-2</v>
+      </c>
+      <c r="G3">
+        <v>5.8946101478165799E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.163754168517383</v>
+      </c>
+      <c r="I3">
+        <v>0.319183381538856</v>
+      </c>
+      <c r="J3">
+        <v>0.17069586700829001</v>
+      </c>
+      <c r="K3">
+        <v>-1.6782425283383601E-2</v>
+      </c>
+      <c r="L3">
+        <v>0.279855673684275</v>
+      </c>
+      <c r="M3">
+        <v>0.18799793637145301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="B4">
+        <v>3.5776107330923801</v>
+      </c>
+      <c r="C4">
+        <v>1.2718703798358899</v>
+      </c>
+      <c r="D4">
+        <v>3.5990539413856202</v>
+      </c>
+      <c r="E4">
+        <v>2.3572158385337301</v>
+      </c>
+      <c r="F4">
+        <v>1.1248387272515701</v>
+      </c>
+      <c r="G4">
+        <v>0.89961785835182595</v>
+      </c>
+      <c r="H4">
+        <v>1.3958572163821901</v>
+      </c>
+      <c r="I4">
+        <v>1.32720217081911</v>
+      </c>
+      <c r="J4">
+        <v>1.18801188882945</v>
+      </c>
+      <c r="K4">
+        <v>7.6278099658679804E-3</v>
+      </c>
+      <c r="L4">
+        <v>1.4207256988296599</v>
+      </c>
+      <c r="M4">
+        <v>0.99578928059615901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1E-8</v>
+      </c>
+      <c r="B5">
+        <v>5.2116527808415203</v>
+      </c>
+      <c r="C5">
+        <v>5.1916712009541204</v>
+      </c>
+      <c r="D5">
+        <v>5.0905030269864504</v>
+      </c>
+      <c r="E5">
+        <v>5.8322827755683804</v>
+      </c>
+      <c r="F5">
+        <v>4.7273066646195501</v>
+      </c>
+      <c r="G5">
+        <v>5.5138616617143699</v>
+      </c>
+      <c r="H5">
+        <v>3.0354153006620299</v>
+      </c>
+      <c r="I5">
+        <v>4.7942032557454004</v>
+      </c>
+      <c r="J5">
+        <v>4.3625229211719798</v>
+      </c>
+      <c r="K5">
+        <v>0.94403449231827896</v>
+      </c>
+      <c r="L5">
+        <v>3.79620453908707</v>
+      </c>
+      <c r="M5">
+        <v>4.7312220120378301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B6">
+        <v>5.89851752555162</v>
+      </c>
+      <c r="C6">
+        <v>5.2090279037302096</v>
+      </c>
+      <c r="D6">
+        <v>5.1950565429035596</v>
+      </c>
+      <c r="E6">
+        <v>5.7251695476226701</v>
+      </c>
+      <c r="F6">
+        <v>4.72077465399102</v>
+      </c>
+      <c r="G6">
+        <v>5.4607703012750601</v>
+      </c>
+      <c r="H6">
+        <v>2.5322969323942299</v>
+      </c>
+      <c r="I6">
+        <v>4.4062693758411804</v>
+      </c>
+      <c r="J6">
+        <v>4.2907976047505398</v>
+      </c>
+      <c r="K6">
+        <v>4.09372649882493</v>
+      </c>
+      <c r="L6">
+        <v>3.7320100511723</v>
+      </c>
+      <c r="M6">
+        <v>4.5589869876755502</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data_2nd_round/Supplementary Table 1_plusNewData.xlsx
+++ b/data_2nd_round/Supplementary Table 1_plusNewData.xlsx
@@ -9,19 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="45" windowWidth="24720" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="3270" yWindow="45" windowWidth="24720" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="AllORNs" sheetId="1" r:id="rId1"/>
+    <sheet name="SignleORN" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3867" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4189" uniqueCount="196">
   <si>
     <t>Odor</t>
   </si>
@@ -569,25 +568,46 @@
     <t>NaN</t>
   </si>
   <si>
-    <t>run101_L</t>
+    <t>ORN</t>
   </si>
   <si>
-    <t>run102_L</t>
+    <t>DF/F</t>
   </si>
   <si>
-    <t>run103_L</t>
+    <t>20180522_101_L</t>
   </si>
   <si>
-    <t>run104_L</t>
+    <t>20180522_101_R</t>
   </si>
   <si>
-    <t>run105_L</t>
+    <t>20180522_201_L</t>
   </si>
   <si>
-    <t>run106_L</t>
+    <t>20180522_201_R</t>
   </si>
   <si>
-    <t>or22c/methyl salicylate</t>
+    <t>20180522_301_L</t>
+  </si>
+  <si>
+    <t>20180522_301_R</t>
+  </si>
+  <si>
+    <t>20180522_401_R</t>
+  </si>
+  <si>
+    <t>20180522_401_L</t>
+  </si>
+  <si>
+    <t>20180522_501_L</t>
+  </si>
+  <si>
+    <t>20180522_501_R</t>
+  </si>
+  <si>
+    <t>20180522_601_L</t>
+  </si>
+  <si>
+    <t>20180522_601_R</t>
   </si>
 </sst>
 </file>
@@ -981,11 +1001,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X1196"/>
+  <dimension ref="A1:X1201"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A784" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C789" sqref="C789"/>
+      <pane ySplit="1" topLeftCell="A1168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1181" sqref="M1181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -89504,6 +89524,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1197" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C1197" s="5"/>
+      <c r="O1197"/>
+    </row>
+    <row r="1198" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C1198" s="5"/>
+      <c r="O1198"/>
+    </row>
+    <row r="1199" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C1199" s="8"/>
+      <c r="O1199"/>
+    </row>
+    <row r="1200" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C1200" s="8"/>
+      <c r="O1200"/>
+    </row>
+    <row r="1201" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C1201" s="8"/>
+      <c r="O1201"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -89512,276 +89552,1907 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="W102" sqref="W102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="E2">
+        <v>0.52836271698369297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="E3">
+        <v>0.55738437434600896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E4">
+        <v>3.5776107330923801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1E-8</v>
+      </c>
+      <c r="E5">
+        <v>5.2116527808415203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E6">
+        <v>5.89851752555162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="E7">
+        <v>0.101782387178684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="E8">
+        <v>0.16982417956877599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E9">
+        <v>1.2718703798358899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1E-8</v>
+      </c>
+      <c r="E10">
+        <v>5.1916712009541204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E11">
+        <v>5.2090279037302096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="E12">
+        <v>0.163262441014592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="E13">
+        <v>0.30019167571563199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E14">
+        <v>3.5990539413856202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1E-8</v>
+      </c>
+      <c r="E15">
+        <v>5.0905030269864504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E16">
+        <v>5.1950565429035596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="E17">
+        <v>0.138902424753691</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="E18">
+        <v>0.25639373123536102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E19">
+        <v>2.3572158385337301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1E-8</v>
+      </c>
+      <c r="E20">
+        <v>5.8322827755683804</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E21">
+        <v>5.7251695476226701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
         <v>188</v>
       </c>
-      <c r="B1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D22" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="E22">
+        <v>1.4536215482678699E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="E23">
+        <v>3.94607485036612E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E24">
+        <v>1.1248387272515701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1E-8</v>
+      </c>
+      <c r="E25">
+        <v>4.7273066646195501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E26">
+        <v>4.72077465399102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="E27">
+        <v>8.1214879452363803E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="E28">
+        <v>5.8946101478165799E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E29">
+        <v>0.89961785835182595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1E-8</v>
+      </c>
+      <c r="E30">
+        <v>5.5138616617143699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E31">
+        <v>5.4607703012750601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="E32">
+        <v>0.1584424374458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="E33">
+        <v>0.163754168517383</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E34">
+        <v>1.3958572163821901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1E-8</v>
+      </c>
+      <c r="E35">
+        <v>3.0354153006620299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E36">
+        <v>2.5322969323942299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="E37">
+        <v>0.14453199566029501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="E38">
+        <v>0.319183381538856</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E39">
+        <v>1.32720217081911</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1E-8</v>
+      </c>
+      <c r="E40">
+        <v>4.7942032557454004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E41">
+        <v>4.4062693758411804</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D42" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="E42">
+        <v>0.11292618810242901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="E43">
+        <v>0.17069586700829001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E44">
+        <v>1.18801188882945</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1E-8</v>
+      </c>
+      <c r="E45">
+        <v>4.3625229211719798</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E46">
+        <v>4.2907976047505398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="E47">
+        <v>4.2030761854306098E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>193</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="E48">
+        <v>-1.6782425283383601E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E49">
+        <v>7.6278099658679804E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" s="8">
+        <v>1E-8</v>
+      </c>
+      <c r="E50">
+        <v>0.94403449231827896</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" t="s">
+        <v>193</v>
+      </c>
+      <c r="D51" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E51">
+        <v>4.09372649882493</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="E52">
+        <v>0.145080415488022</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" t="s">
+        <v>194</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="E53">
+        <v>0.279855673684275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" t="s">
+        <v>194</v>
+      </c>
+      <c r="D54" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E54">
+        <v>1.4207256988296599</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" t="s">
+        <v>194</v>
+      </c>
+      <c r="D55" s="8">
+        <v>1E-8</v>
+      </c>
+      <c r="E55">
+        <v>3.79620453908707</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E56">
+        <v>3.7320100511723</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" t="s">
+        <v>195</v>
+      </c>
+      <c r="D57" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="E57">
+        <v>0.156447348810547</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="E58">
+        <v>0.18799793637145301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E59">
+        <v>0.99578928059615901</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" s="8">
+        <v>1E-8</v>
+      </c>
+      <c r="E60">
+        <v>4.7312220120378301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E61">
+        <v>4.5589869876755502</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" t="s">
         <v>184</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D62" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="E62">
+        <v>9.8351456805273602E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" t="s">
         <v>184</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D63" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="E63">
+        <v>0.342572503826584</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E64">
+        <v>2.4054722456721498</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" s="8">
+        <v>1E-8</v>
+      </c>
+      <c r="E65">
+        <v>4.49333775145021</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E66">
+        <v>4.5763198625547004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" t="s">
         <v>185</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D67" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" t="s">
         <v>185</v>
       </c>
-      <c r="J1" t="s">
+      <c r="D68" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="E68">
+        <v>0.15460741046149901</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E69">
+        <v>1.3156832868313399</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" t="s">
+        <v>185</v>
+      </c>
+      <c r="D70" s="8">
+        <v>1E-8</v>
+      </c>
+      <c r="E70">
+        <v>2.0524538310274498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E71">
+        <v>1.9939438692398099</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" t="s">
         <v>186</v>
       </c>
-      <c r="K1" t="s">
+      <c r="D72" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" t="s">
         <v>186</v>
       </c>
-      <c r="L1" t="s">
+      <c r="D73" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="E73">
+        <v>0.23215799352340399</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E74">
+        <v>1.9488423579915499</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75" s="8">
+        <v>1E-8</v>
+      </c>
+      <c r="E75">
+        <v>4.10462905964821</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" t="s">
+        <v>186</v>
+      </c>
+      <c r="D76" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E76">
+        <v>3.6586741248670598</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" t="s">
         <v>187</v>
       </c>
-      <c r="M1" t="s">
+      <c r="D77" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="D78" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="E78">
+        <v>0.20886399028568001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" t="s">
+        <v>187</v>
+      </c>
+      <c r="D79" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E79">
+        <v>0.72705596979860299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" s="8">
+        <v>1E-8</v>
+      </c>
+      <c r="E80">
+        <v>1.5964056102662001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" t="s">
+        <v>187</v>
+      </c>
+      <c r="D81" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E81">
+        <v>1.9743018977059399</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" t="s">
+        <v>188</v>
+      </c>
+      <c r="D82" s="5">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="B2">
-        <v>0.52836271698369297</v>
-      </c>
-      <c r="C2">
-        <v>0.101782387178684</v>
-      </c>
-      <c r="D2">
-        <v>0.163262441014592</v>
-      </c>
-      <c r="E2">
-        <v>0.138902424753691</v>
-      </c>
-      <c r="F2">
-        <v>1.4536215482678699E-3</v>
-      </c>
-      <c r="G2">
-        <v>8.1214879452363803E-2</v>
-      </c>
-      <c r="H2">
-        <v>0.1584424374458</v>
-      </c>
-      <c r="I2">
-        <v>0.14453199566029501</v>
-      </c>
-      <c r="J2">
-        <v>0.11292618810242901</v>
-      </c>
-      <c r="K2">
-        <v>4.2030761854306098E-2</v>
-      </c>
-      <c r="L2">
-        <v>0.145080415488022</v>
-      </c>
-      <c r="M2">
-        <v>0.156447348810547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" t="s">
+        <v>188</v>
+      </c>
+      <c r="D83" s="5">
         <v>1E-10</v>
       </c>
-      <c r="B3">
-        <v>0.55738437434600896</v>
-      </c>
-      <c r="C3">
-        <v>0.16982417956877599</v>
-      </c>
-      <c r="D3">
-        <v>0.30019167571563199</v>
-      </c>
-      <c r="E3">
-        <v>0.25639373123536102</v>
-      </c>
-      <c r="F3">
-        <v>3.94607485036612E-2</v>
-      </c>
-      <c r="G3">
-        <v>5.8946101478165799E-2</v>
-      </c>
-      <c r="H3">
-        <v>0.163754168517383</v>
-      </c>
-      <c r="I3">
-        <v>0.319183381538856</v>
-      </c>
-      <c r="J3">
-        <v>0.17069586700829001</v>
-      </c>
-      <c r="K3">
-        <v>-1.6782425283383601E-2</v>
-      </c>
-      <c r="L3">
-        <v>0.279855673684275</v>
-      </c>
-      <c r="M3">
-        <v>0.18799793637145301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="E83">
+        <v>0.19433241992765499</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>71</v>
+      </c>
+      <c r="B84" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" t="s">
+        <v>188</v>
+      </c>
+      <c r="D84" s="8">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="B4">
-        <v>3.5776107330923801</v>
-      </c>
-      <c r="C4">
-        <v>1.2718703798358899</v>
-      </c>
-      <c r="D4">
-        <v>3.5990539413856202</v>
-      </c>
-      <c r="E4">
-        <v>2.3572158385337301</v>
-      </c>
-      <c r="F4">
-        <v>1.1248387272515701</v>
-      </c>
-      <c r="G4">
-        <v>0.89961785835182595</v>
-      </c>
-      <c r="H4">
-        <v>1.3958572163821901</v>
-      </c>
-      <c r="I4">
-        <v>1.32720217081911</v>
-      </c>
-      <c r="J4">
-        <v>1.18801188882945</v>
-      </c>
-      <c r="K4">
-        <v>7.6278099658679804E-3</v>
-      </c>
-      <c r="L4">
-        <v>1.4207256988296599</v>
-      </c>
-      <c r="M4">
-        <v>0.99578928059615901</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="E84">
+        <v>1.9011966973149801</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" t="s">
+        <v>188</v>
+      </c>
+      <c r="D85" s="8">
         <v>1E-8</v>
       </c>
-      <c r="B5">
-        <v>5.2116527808415203</v>
-      </c>
-      <c r="C5">
-        <v>5.1916712009541204</v>
-      </c>
-      <c r="D5">
-        <v>5.0905030269864504</v>
-      </c>
-      <c r="E5">
-        <v>5.8322827755683804</v>
-      </c>
-      <c r="F5">
-        <v>4.7273066646195501</v>
-      </c>
-      <c r="G5">
-        <v>5.5138616617143699</v>
-      </c>
-      <c r="H5">
-        <v>3.0354153006620299</v>
-      </c>
-      <c r="I5">
-        <v>4.7942032557454004</v>
-      </c>
-      <c r="J5">
-        <v>4.3625229211719798</v>
-      </c>
-      <c r="K5">
-        <v>0.94403449231827896</v>
-      </c>
-      <c r="L5">
-        <v>3.79620453908707</v>
-      </c>
-      <c r="M5">
-        <v>4.7312220120378301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="E85">
+        <v>2.9796041446104402</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>71</v>
+      </c>
+      <c r="B86" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" t="s">
+        <v>188</v>
+      </c>
+      <c r="D86" s="8">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B6">
-        <v>5.89851752555162</v>
-      </c>
-      <c r="C6">
-        <v>5.2090279037302096</v>
-      </c>
-      <c r="D6">
-        <v>5.1950565429035596</v>
-      </c>
-      <c r="E6">
-        <v>5.7251695476226701</v>
-      </c>
-      <c r="F6">
-        <v>4.72077465399102</v>
-      </c>
-      <c r="G6">
-        <v>5.4607703012750601</v>
-      </c>
-      <c r="H6">
-        <v>2.5322969323942299</v>
-      </c>
-      <c r="I6">
-        <v>4.4062693758411804</v>
-      </c>
-      <c r="J6">
-        <v>4.2907976047505398</v>
-      </c>
-      <c r="K6">
-        <v>4.09372649882493</v>
-      </c>
-      <c r="L6">
-        <v>3.7320100511723</v>
-      </c>
-      <c r="M6">
-        <v>4.5589869876755502</v>
+      <c r="E86">
+        <v>3.0399577800972102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" t="s">
+        <v>189</v>
+      </c>
+      <c r="D87" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="E87">
+        <v>0.13965197898586201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>71</v>
+      </c>
+      <c r="B88" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" t="s">
+        <v>189</v>
+      </c>
+      <c r="D88" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="E88">
+        <v>0.13556072725705501</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>71</v>
+      </c>
+      <c r="B89" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" t="s">
+        <v>189</v>
+      </c>
+      <c r="D89" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E89">
+        <v>1.1308147496029699</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>71</v>
+      </c>
+      <c r="B90" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" t="s">
+        <v>189</v>
+      </c>
+      <c r="D90" s="8">
+        <v>1E-8</v>
+      </c>
+      <c r="E90">
+        <v>2.4212219605843401</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E91">
+        <v>2.8627174335166199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>71</v>
+      </c>
+      <c r="B92" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" t="s">
+        <v>191</v>
+      </c>
+      <c r="D92" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="E92">
+        <v>0.24134094345045501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>71</v>
+      </c>
+      <c r="B93" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" t="s">
+        <v>191</v>
+      </c>
+      <c r="D93" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="E93">
+        <v>0.58648487468487398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>71</v>
+      </c>
+      <c r="B94" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" t="s">
+        <v>191</v>
+      </c>
+      <c r="D94" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E94">
+        <v>1.52840919085275</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>71</v>
+      </c>
+      <c r="B95" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" t="s">
+        <v>191</v>
+      </c>
+      <c r="D95" s="8">
+        <v>1E-8</v>
+      </c>
+      <c r="E95">
+        <v>1.9390935777624501</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>71</v>
+      </c>
+      <c r="B96" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" t="s">
+        <v>191</v>
+      </c>
+      <c r="D96" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E96">
+        <v>1.81099775775668</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>71</v>
+      </c>
+      <c r="B97" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" t="s">
+        <v>190</v>
+      </c>
+      <c r="D97" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="E97">
+        <v>9.0134651921555703E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>71</v>
+      </c>
+      <c r="B98" t="s">
+        <v>39</v>
+      </c>
+      <c r="C98" t="s">
+        <v>190</v>
+      </c>
+      <c r="D98" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="E98">
+        <v>0.25643740878149601</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>71</v>
+      </c>
+      <c r="B99" t="s">
+        <v>39</v>
+      </c>
+      <c r="C99" t="s">
+        <v>190</v>
+      </c>
+      <c r="D99" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E99">
+        <v>1.5487559943713001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>71</v>
+      </c>
+      <c r="B100" t="s">
+        <v>39</v>
+      </c>
+      <c r="C100" t="s">
+        <v>190</v>
+      </c>
+      <c r="D100" s="8">
+        <v>1E-8</v>
+      </c>
+      <c r="E100">
+        <v>2.7152372256567401</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>71</v>
+      </c>
+      <c r="B101" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" t="s">
+        <v>190</v>
+      </c>
+      <c r="D101" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E101">
+        <v>3.0449911707684101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>71</v>
+      </c>
+      <c r="B102" t="s">
+        <v>39</v>
+      </c>
+      <c r="C102" t="s">
+        <v>194</v>
+      </c>
+      <c r="D102" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>71</v>
+      </c>
+      <c r="B103" t="s">
+        <v>39</v>
+      </c>
+      <c r="C103" t="s">
+        <v>194</v>
+      </c>
+      <c r="D103" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="E103">
+        <v>0.388447290071741</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>71</v>
+      </c>
+      <c r="B104" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104" t="s">
+        <v>194</v>
+      </c>
+      <c r="D104" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E104">
+        <v>1.66300561611915</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>71</v>
+      </c>
+      <c r="B105" t="s">
+        <v>39</v>
+      </c>
+      <c r="C105" t="s">
+        <v>194</v>
+      </c>
+      <c r="D105" s="8">
+        <v>1E-8</v>
+      </c>
+      <c r="E105">
+        <v>2.61942518349169</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>71</v>
+      </c>
+      <c r="B106" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" t="s">
+        <v>194</v>
+      </c>
+      <c r="D106" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E106">
+        <v>3.5320972840937799</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>71</v>
+      </c>
+      <c r="B107" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" t="s">
+        <v>195</v>
+      </c>
+      <c r="D107" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="E107">
+        <v>0.18180648178432199</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>71</v>
+      </c>
+      <c r="B108" t="s">
+        <v>39</v>
+      </c>
+      <c r="C108" t="s">
+        <v>195</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="E108">
+        <v>0.28889483939691402</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>71</v>
+      </c>
+      <c r="B109" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" t="s">
+        <v>195</v>
+      </c>
+      <c r="D109" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E109">
+        <v>1.9623397653470001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>71</v>
+      </c>
+      <c r="B110" t="s">
+        <v>39</v>
+      </c>
+      <c r="C110" t="s">
+        <v>195</v>
+      </c>
+      <c r="D110" s="8">
+        <v>1E-8</v>
+      </c>
+      <c r="E110">
+        <v>3.1133001799264899</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>71</v>
+      </c>
+      <c r="B111" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" t="s">
+        <v>195</v>
+      </c>
+      <c r="D111" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E111">
+        <v>3.6795676503641901</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data_2nd_round/Supplementary Table 1_plusNewData.xlsx
+++ b/data_2nd_round/Supplementary Table 1_plusNewData.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="45" windowWidth="24720" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="4200" yWindow="45" windowWidth="24720" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="AllORNs" sheetId="1" r:id="rId1"/>
-    <sheet name="SignleORN" sheetId="3" r:id="rId2"/>
+    <sheet name="Fig1Data" sheetId="4" r:id="rId1"/>
+    <sheet name="AllORNs" sheetId="1" r:id="rId2"/>
+    <sheet name="SignleORN" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4189" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5250" uniqueCount="209">
   <si>
     <t>Odor</t>
   </si>
@@ -609,6 +610,45 @@
   <si>
     <t>20180522_601_R</t>
   </si>
+  <si>
+    <t>O13a</t>
+  </si>
+  <si>
+    <t>1_L</t>
+  </si>
+  <si>
+    <t>1_R</t>
+  </si>
+  <si>
+    <t>2_L</t>
+  </si>
+  <si>
+    <t>2_R</t>
+  </si>
+  <si>
+    <t>3_L</t>
+  </si>
+  <si>
+    <t>3_R</t>
+  </si>
+  <si>
+    <t>4_L</t>
+  </si>
+  <si>
+    <t>4_R</t>
+  </si>
+  <si>
+    <t>5_L</t>
+  </si>
+  <si>
+    <t>5_R</t>
+  </si>
+  <si>
+    <t>6_L</t>
+  </si>
+  <si>
+    <t>6_R</t>
+  </si>
 </sst>
 </file>
 
@@ -1001,6 +1041,6029 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E353"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="H361" sqref="H361"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2">
+        <v>0.20606180272841701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3">
+        <v>0.21502899076736001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4">
+        <v>0.19589025046679301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5">
+        <v>0.84286733723263296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6">
+        <v>2.8765731495599201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7">
+        <v>2.5491024209359501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8">
+        <v>2.4938294767733802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9">
+        <v>2.3271151544248898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10">
+        <v>0.328630850895613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11">
+        <v>4.3036767519198098E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12">
+        <v>0.77556467886488301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13">
+        <v>2.0598888543874501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14">
+        <v>2.8495265701591301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15">
+        <v>2.5529170602698299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16">
+        <v>2.4782276346696301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E17">
+        <v>2.1627923553185799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18">
+        <v>3.08617807891754E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19">
+        <v>4.9189175759829201E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20">
+        <v>5.9795985329859698E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21">
+        <v>0.58797672173252302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22">
+        <v>2.3151818475432799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23">
+        <v>2.48354235399038</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24">
+        <v>2.6066133856034899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25">
+        <v>2.3998821180036498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26">
+        <v>8.5502998880292197E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27">
+        <v>9.2303487884968893E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28">
+        <v>0.57736905546193695</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29">
+        <v>1.9409005122212599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30">
+        <v>2.7700384401539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31">
+        <v>2.6785882260215899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32">
+        <v>2.4095979589966001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>196</v>
+      </c>
+      <c r="E33">
+        <v>2.1453555264467701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34">
+        <v>3.1262631599250502E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35">
+        <v>9.5182507216259107E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36">
+        <v>0.19101745487846</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37">
+        <v>1.27171796458708</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38">
+        <v>3.0687536374812798</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>196</v>
+      </c>
+      <c r="E39">
+        <v>4.1697351494323396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40">
+        <v>4.5047641570351997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41">
+        <v>4.5726028683898496</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>196</v>
+      </c>
+      <c r="E42">
+        <v>1.15703352604648E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E43">
+        <v>0.13028766082489299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>196</v>
+      </c>
+      <c r="E44">
+        <v>0.88248021294045997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>196</v>
+      </c>
+      <c r="E45">
+        <v>2.66958168336344</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>196</v>
+      </c>
+      <c r="E46">
+        <v>3.7918379532490398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>199</v>
+      </c>
+      <c r="C47" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47">
+        <v>4.3495940277379397</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48">
+        <v>4.3689290751950196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49">
+        <v>4.1467043371356</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50">
+        <v>0.16783680343753599</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>196</v>
+      </c>
+      <c r="E51">
+        <v>0.190892258527711</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52">
+        <v>0.53169463802773598</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>200</v>
+      </c>
+      <c r="C53" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53">
+        <v>1.78773758562799</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>196</v>
+      </c>
+      <c r="E54">
+        <v>5.2294830201512603</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>196</v>
+      </c>
+      <c r="E55">
+        <v>5.7281016361761701</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56">
+        <v>5.6931589374301597</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>196</v>
+      </c>
+      <c r="E57">
+        <v>5.1734082235261702</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>196</v>
+      </c>
+      <c r="E58">
+        <v>8.9936247968949903E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>196</v>
+      </c>
+      <c r="E59">
+        <v>0.399339807502335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60">
+        <v>1.3528650626993901</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61">
+        <v>4.5257566842466099</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62">
+        <v>6.0010952825656299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>200</v>
+      </c>
+      <c r="C63" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63">
+        <v>5.86848512002764</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64">
+        <v>5.4374339402641896</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>196</v>
+      </c>
+      <c r="E65">
+        <v>4.5077414722886502</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>196</v>
+      </c>
+      <c r="E66">
+        <v>4.2924378074241702E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>201</v>
+      </c>
+      <c r="C67" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>196</v>
+      </c>
+      <c r="E67">
+        <v>9.2447243945881399E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>196</v>
+      </c>
+      <c r="E68">
+        <v>0.34969075732018501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>196</v>
+      </c>
+      <c r="E69">
+        <v>1.71082801546017</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>196</v>
+      </c>
+      <c r="E70">
+        <v>6.2198890422323698</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>196</v>
+      </c>
+      <c r="E71">
+        <v>7.0264018149576701</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>196</v>
+      </c>
+      <c r="E72">
+        <v>7.2672941953595904</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>196</v>
+      </c>
+      <c r="E73">
+        <v>6.66297069566824</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>201</v>
+      </c>
+      <c r="C74" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E74">
+        <v>4.1215581270077101E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>196</v>
+      </c>
+      <c r="E75">
+        <v>0.29320767031938699</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>196</v>
+      </c>
+      <c r="E76">
+        <v>1.1504535428241101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>196</v>
+      </c>
+      <c r="E77">
+        <v>4.7139216218235296</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>196</v>
+      </c>
+      <c r="E78">
+        <v>6.98249603862683</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>196</v>
+      </c>
+      <c r="E79">
+        <v>7.2259158340902196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>201</v>
+      </c>
+      <c r="C80" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>196</v>
+      </c>
+      <c r="E80">
+        <v>7.3206317751276897</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>201</v>
+      </c>
+      <c r="C81" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>196</v>
+      </c>
+      <c r="E81">
+        <v>6.8982931691378502</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>202</v>
+      </c>
+      <c r="C82" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>196</v>
+      </c>
+      <c r="E82">
+        <v>5.6408553500146398E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>202</v>
+      </c>
+      <c r="C83" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>196</v>
+      </c>
+      <c r="E83">
+        <v>0.116752562525516</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>202</v>
+      </c>
+      <c r="C84" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D84" t="s">
+        <v>196</v>
+      </c>
+      <c r="E84">
+        <v>0.47117316379831597</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>202</v>
+      </c>
+      <c r="C85" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D85" t="s">
+        <v>196</v>
+      </c>
+      <c r="E85">
+        <v>1.89773823963469</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>196</v>
+      </c>
+      <c r="E86">
+        <v>4.6716088749457496</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>202</v>
+      </c>
+      <c r="C87" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>196</v>
+      </c>
+      <c r="E87">
+        <v>5.5366703878966499</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>196</v>
+      </c>
+      <c r="E88">
+        <v>5.5131408057276596</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="D89" t="s">
+        <v>196</v>
+      </c>
+      <c r="E89">
+        <v>4.8678966932195502</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>202</v>
+      </c>
+      <c r="C90" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>196</v>
+      </c>
+      <c r="E90">
+        <v>9.4558224195433901E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>196</v>
+      </c>
+      <c r="E91">
+        <v>0.349167605021032</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" t="s">
+        <v>202</v>
+      </c>
+      <c r="C92" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>196</v>
+      </c>
+      <c r="E92">
+        <v>1.6753903670391701</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>202</v>
+      </c>
+      <c r="C93" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D93" t="s">
+        <v>196</v>
+      </c>
+      <c r="E93">
+        <v>4.4779046381618004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>196</v>
+      </c>
+      <c r="E94">
+        <v>5.7736329844389598</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>202</v>
+      </c>
+      <c r="C95" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>196</v>
+      </c>
+      <c r="E95">
+        <v>5.5608860997844003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>196</v>
+      </c>
+      <c r="E96">
+        <v>5.4309811976852904</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D97" t="s">
+        <v>196</v>
+      </c>
+      <c r="E97">
+        <v>4.0879066820665901</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>196</v>
+      </c>
+      <c r="E98">
+        <v>-2.28091641386651E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>196</v>
+      </c>
+      <c r="E99">
+        <v>4.0270644513939802E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D100" t="s">
+        <v>196</v>
+      </c>
+      <c r="E100">
+        <v>0.26830138901120298</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D101" t="s">
+        <v>196</v>
+      </c>
+      <c r="E101">
+        <v>1.09813580568458</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+      <c r="C102" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>196</v>
+      </c>
+      <c r="E102">
+        <v>2.2331479569561998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D103" t="s">
+        <v>196</v>
+      </c>
+      <c r="E103">
+        <v>3.1892890803445502</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" t="s">
+        <v>203</v>
+      </c>
+      <c r="C104" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>196</v>
+      </c>
+      <c r="E104">
+        <v>3.4368658525845599</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>203</v>
+      </c>
+      <c r="C105" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="D105" t="s">
+        <v>196</v>
+      </c>
+      <c r="E105">
+        <v>2.8034435785635501</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" t="s">
+        <v>203</v>
+      </c>
+      <c r="C106" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>196</v>
+      </c>
+      <c r="E106">
+        <v>-2.1641817612883199E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" t="s">
+        <v>203</v>
+      </c>
+      <c r="C107" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>196</v>
+      </c>
+      <c r="E107">
+        <v>0.26717058061905002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" t="s">
+        <v>203</v>
+      </c>
+      <c r="C108" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>196</v>
+      </c>
+      <c r="E108">
+        <v>0.95810762447792597</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" t="s">
+        <v>203</v>
+      </c>
+      <c r="C109" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D109" t="s">
+        <v>196</v>
+      </c>
+      <c r="E109">
+        <v>2.2865891933317002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" t="s">
+        <v>203</v>
+      </c>
+      <c r="C110" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>196</v>
+      </c>
+      <c r="E110">
+        <v>3.0398200075324802</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" t="s">
+        <v>203</v>
+      </c>
+      <c r="C111" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>196</v>
+      </c>
+      <c r="E111">
+        <v>3.5655334848572902</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" t="s">
+        <v>203</v>
+      </c>
+      <c r="C112" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>196</v>
+      </c>
+      <c r="E112">
+        <v>2.62780102269299</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" t="s">
+        <v>203</v>
+      </c>
+      <c r="C113" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>196</v>
+      </c>
+      <c r="E113">
+        <v>2.92584632623119</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>204</v>
+      </c>
+      <c r="C114" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>196</v>
+      </c>
+      <c r="E114">
+        <v>3.2747208434690998E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" t="s">
+        <v>204</v>
+      </c>
+      <c r="C115" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>196</v>
+      </c>
+      <c r="E115">
+        <v>3.4972428579858703E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" t="s">
+        <v>204</v>
+      </c>
+      <c r="C116" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D116" t="s">
+        <v>196</v>
+      </c>
+      <c r="E116">
+        <v>0.18863801774274999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>204</v>
+      </c>
+      <c r="C117" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D117" t="s">
+        <v>196</v>
+      </c>
+      <c r="E117">
+        <v>0.92469412443529397</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" t="s">
+        <v>204</v>
+      </c>
+      <c r="C118" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D118" t="s">
+        <v>196</v>
+      </c>
+      <c r="E118">
+        <v>2.89378118586612</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" t="s">
+        <v>204</v>
+      </c>
+      <c r="C119" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D119" t="s">
+        <v>196</v>
+      </c>
+      <c r="E119">
+        <v>3.91199192855691</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" t="s">
+        <v>204</v>
+      </c>
+      <c r="C120" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D120" t="s">
+        <v>196</v>
+      </c>
+      <c r="E120">
+        <v>4.9211583602709297</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" t="s">
+        <v>204</v>
+      </c>
+      <c r="C121" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="D121" t="s">
+        <v>196</v>
+      </c>
+      <c r="E121">
+        <v>4.9615204933349899</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" t="s">
+        <v>204</v>
+      </c>
+      <c r="C122" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>196</v>
+      </c>
+      <c r="E122">
+        <v>5.0543232380190498E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" t="s">
+        <v>204</v>
+      </c>
+      <c r="C123" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D123" t="s">
+        <v>196</v>
+      </c>
+      <c r="E123">
+        <v>0.24089585805800201</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" t="s">
+        <v>204</v>
+      </c>
+      <c r="C124" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D124" t="s">
+        <v>196</v>
+      </c>
+      <c r="E124">
+        <v>0.51735507792778301</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" t="s">
+        <v>204</v>
+      </c>
+      <c r="C125" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D125" t="s">
+        <v>196</v>
+      </c>
+      <c r="E125">
+        <v>2.2056480431176402</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" t="s">
+        <v>204</v>
+      </c>
+      <c r="C126" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D126" t="s">
+        <v>196</v>
+      </c>
+      <c r="E126">
+        <v>3.9704230131201901</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" t="s">
+        <v>204</v>
+      </c>
+      <c r="C127" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D127" t="s">
+        <v>196</v>
+      </c>
+      <c r="E127">
+        <v>4.2174699861651099</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" t="s">
+        <v>204</v>
+      </c>
+      <c r="C128" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>196</v>
+      </c>
+      <c r="E128">
+        <v>3.9989697599548899</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" t="s">
+        <v>204</v>
+      </c>
+      <c r="C129" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D129" t="s">
+        <v>196</v>
+      </c>
+      <c r="E129">
+        <v>4.34252735832355</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" t="s">
+        <v>205</v>
+      </c>
+      <c r="C130" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>196</v>
+      </c>
+      <c r="E130">
+        <v>7.6945617430806107E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" t="s">
+        <v>205</v>
+      </c>
+      <c r="C131" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>196</v>
+      </c>
+      <c r="E131">
+        <v>3.5072908186054498E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>205</v>
+      </c>
+      <c r="C132" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D132" t="s">
+        <v>196</v>
+      </c>
+      <c r="E132">
+        <v>0.30846751839731901</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>205</v>
+      </c>
+      <c r="C133" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D133" t="s">
+        <v>196</v>
+      </c>
+      <c r="E133">
+        <v>1.3660512052104901</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>205</v>
+      </c>
+      <c r="C134" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D134" t="s">
+        <v>196</v>
+      </c>
+      <c r="E134">
+        <v>5.3823173493922498</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>205</v>
+      </c>
+      <c r="C135" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D135" t="s">
+        <v>196</v>
+      </c>
+      <c r="E135">
+        <v>7.5396956007995701</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>205</v>
+      </c>
+      <c r="C136" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D136" t="s">
+        <v>196</v>
+      </c>
+      <c r="E136">
+        <v>7.05707128624422</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" t="s">
+        <v>205</v>
+      </c>
+      <c r="C137" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="D137" t="s">
+        <v>196</v>
+      </c>
+      <c r="E137">
+        <v>7.2818828780597498</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" t="s">
+        <v>205</v>
+      </c>
+      <c r="C138" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D138" t="s">
+        <v>196</v>
+      </c>
+      <c r="E138">
+        <v>3.2702560577309699E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" t="s">
+        <v>205</v>
+      </c>
+      <c r="C139" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D139" t="s">
+        <v>196</v>
+      </c>
+      <c r="E139">
+        <v>0.289401782235302</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" t="s">
+        <v>205</v>
+      </c>
+      <c r="C140" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D140" t="s">
+        <v>196</v>
+      </c>
+      <c r="E140">
+        <v>0.98737847315717897</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" t="s">
+        <v>205</v>
+      </c>
+      <c r="C141" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D141" t="s">
+        <v>196</v>
+      </c>
+      <c r="E141">
+        <v>3.9674748393105501</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" t="s">
+        <v>205</v>
+      </c>
+      <c r="C142" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D142" t="s">
+        <v>196</v>
+      </c>
+      <c r="E142">
+        <v>6.36848332599447</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" t="s">
+        <v>205</v>
+      </c>
+      <c r="C143" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D143" t="s">
+        <v>196</v>
+      </c>
+      <c r="E143">
+        <v>6.4875479534071898</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" t="s">
+        <v>205</v>
+      </c>
+      <c r="C144" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>196</v>
+      </c>
+      <c r="E144">
+        <v>7.5711484425240201</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" t="s">
+        <v>205</v>
+      </c>
+      <c r="C145" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D145" t="s">
+        <v>196</v>
+      </c>
+      <c r="E145">
+        <v>7.5354744338250903</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" t="s">
+        <v>206</v>
+      </c>
+      <c r="C146" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D146" t="s">
+        <v>196</v>
+      </c>
+      <c r="E146">
+        <v>8.9003302205020896E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" t="s">
+        <v>206</v>
+      </c>
+      <c r="C147" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D147" t="s">
+        <v>196</v>
+      </c>
+      <c r="E147">
+        <v>0.14685631096524801</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" t="s">
+        <v>206</v>
+      </c>
+      <c r="C148" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D148" t="s">
+        <v>196</v>
+      </c>
+      <c r="E148">
+        <v>0.502619952216941</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" t="s">
+        <v>206</v>
+      </c>
+      <c r="C149" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D149" t="s">
+        <v>196</v>
+      </c>
+      <c r="E149">
+        <v>1.43032956107558</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" t="s">
+        <v>206</v>
+      </c>
+      <c r="C150" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D150" t="s">
+        <v>196</v>
+      </c>
+      <c r="E150">
+        <v>4.4060383177522704</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" t="s">
+        <v>206</v>
+      </c>
+      <c r="C151" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D151" t="s">
+        <v>196</v>
+      </c>
+      <c r="E151">
+        <v>7.04278257693732</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152" t="s">
+        <v>206</v>
+      </c>
+      <c r="C152" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D152" t="s">
+        <v>196</v>
+      </c>
+      <c r="E152">
+        <v>6.2699783403756699</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" t="s">
+        <v>206</v>
+      </c>
+      <c r="C153" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="D153" t="s">
+        <v>196</v>
+      </c>
+      <c r="E153">
+        <v>6.0892934498658304</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" t="s">
+        <v>206</v>
+      </c>
+      <c r="C154" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D154" t="s">
+        <v>196</v>
+      </c>
+      <c r="E154">
+        <v>0.102128933098645</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" t="s">
+        <v>206</v>
+      </c>
+      <c r="C155" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D155" t="s">
+        <v>196</v>
+      </c>
+      <c r="E155">
+        <v>0.37182118382274598</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" t="s">
+        <v>206</v>
+      </c>
+      <c r="C156" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D156" t="s">
+        <v>196</v>
+      </c>
+      <c r="E156">
+        <v>1.1401849437712099</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" t="s">
+        <v>206</v>
+      </c>
+      <c r="C157" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D157" t="s">
+        <v>196</v>
+      </c>
+      <c r="E157">
+        <v>3.4050978741104099</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" t="s">
+        <v>206</v>
+      </c>
+      <c r="C158" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D158" t="s">
+        <v>196</v>
+      </c>
+      <c r="E158">
+        <v>6.3436443966501201</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" t="s">
+        <v>206</v>
+      </c>
+      <c r="C159" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D159" t="s">
+        <v>196</v>
+      </c>
+      <c r="E159">
+        <v>6.7134416483633501</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" t="s">
+        <v>206</v>
+      </c>
+      <c r="C160" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D160" t="s">
+        <v>196</v>
+      </c>
+      <c r="E160">
+        <v>6.3448891909851302</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" t="s">
+        <v>206</v>
+      </c>
+      <c r="C161" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D161" t="s">
+        <v>196</v>
+      </c>
+      <c r="E161">
+        <v>6.1057821559188596</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" t="s">
+        <v>207</v>
+      </c>
+      <c r="C162" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D162" t="s">
+        <v>196</v>
+      </c>
+      <c r="E162">
+        <v>7.8122419752003902E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163" t="s">
+        <v>207</v>
+      </c>
+      <c r="C163" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D163" t="s">
+        <v>196</v>
+      </c>
+      <c r="E163">
+        <v>0.12380367829194</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" t="s">
+        <v>207</v>
+      </c>
+      <c r="C164" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D164" t="s">
+        <v>196</v>
+      </c>
+      <c r="E164">
+        <v>0.42264042029271398</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" t="s">
+        <v>207</v>
+      </c>
+      <c r="C165" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D165" t="s">
+        <v>196</v>
+      </c>
+      <c r="E165">
+        <v>2.1603754283668399</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166" t="s">
+        <v>207</v>
+      </c>
+      <c r="C166" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D166" t="s">
+        <v>196</v>
+      </c>
+      <c r="E166">
+        <v>4.4298998224424002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" t="s">
+        <v>207</v>
+      </c>
+      <c r="C167" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D167" t="s">
+        <v>196</v>
+      </c>
+      <c r="E167">
+        <v>4.7147043994826703</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" t="s">
+        <v>207</v>
+      </c>
+      <c r="C168" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D168" t="s">
+        <v>196</v>
+      </c>
+      <c r="E168">
+        <v>4.8067201531525603</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>11</v>
+      </c>
+      <c r="B169" t="s">
+        <v>207</v>
+      </c>
+      <c r="C169" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="D169" t="s">
+        <v>196</v>
+      </c>
+      <c r="E169">
+        <v>5.1687571698926602</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" t="s">
+        <v>207</v>
+      </c>
+      <c r="C170" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D170" t="s">
+        <v>196</v>
+      </c>
+      <c r="E170">
+        <v>0.102152611850325</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171" t="s">
+        <v>207</v>
+      </c>
+      <c r="C171" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D171" t="s">
+        <v>196</v>
+      </c>
+      <c r="E171">
+        <v>0.31247360383466</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" t="s">
+        <v>207</v>
+      </c>
+      <c r="C172" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D172" t="s">
+        <v>196</v>
+      </c>
+      <c r="E172">
+        <v>1.32073770431911</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" t="s">
+        <v>207</v>
+      </c>
+      <c r="C173" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D173" t="s">
+        <v>196</v>
+      </c>
+      <c r="E173">
+        <v>3.6765448606940101</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174" t="s">
+        <v>207</v>
+      </c>
+      <c r="C174" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D174" t="s">
+        <v>196</v>
+      </c>
+      <c r="E174">
+        <v>4.61496963984305</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" t="s">
+        <v>207</v>
+      </c>
+      <c r="C175" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D175" t="s">
+        <v>196</v>
+      </c>
+      <c r="E175">
+        <v>4.6516466092344597</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" t="s">
+        <v>207</v>
+      </c>
+      <c r="C176" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D176" t="s">
+        <v>196</v>
+      </c>
+      <c r="E176">
+        <v>5.2847811949699297</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" t="s">
+        <v>207</v>
+      </c>
+      <c r="C177" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D177" t="s">
+        <v>196</v>
+      </c>
+      <c r="E177">
+        <v>4.9847015497928497</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" t="s">
+        <v>208</v>
+      </c>
+      <c r="C178" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D178" t="s">
+        <v>196</v>
+      </c>
+      <c r="E178">
+        <v>0.14353477577600701</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179" t="s">
+        <v>208</v>
+      </c>
+      <c r="C179" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D179" t="s">
+        <v>196</v>
+      </c>
+      <c r="E179">
+        <v>0.12974398102627799</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180" t="s">
+        <v>208</v>
+      </c>
+      <c r="C180" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D180" t="s">
+        <v>196</v>
+      </c>
+      <c r="E180">
+        <v>0.59773830574570797</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181" t="s">
+        <v>208</v>
+      </c>
+      <c r="C181" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D181" t="s">
+        <v>196</v>
+      </c>
+      <c r="E181">
+        <v>3.0829914347115199</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>11</v>
+      </c>
+      <c r="B182" t="s">
+        <v>208</v>
+      </c>
+      <c r="C182" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D182" t="s">
+        <v>196</v>
+      </c>
+      <c r="E182">
+        <v>5.2600346409416003</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>11</v>
+      </c>
+      <c r="B183" t="s">
+        <v>208</v>
+      </c>
+      <c r="C183" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D183" t="s">
+        <v>196</v>
+      </c>
+      <c r="E183">
+        <v>5.5191100243876496</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>11</v>
+      </c>
+      <c r="B184" t="s">
+        <v>208</v>
+      </c>
+      <c r="C184" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D184" t="s">
+        <v>196</v>
+      </c>
+      <c r="E184">
+        <v>5.0051080461637802</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>11</v>
+      </c>
+      <c r="B185" t="s">
+        <v>208</v>
+      </c>
+      <c r="C185" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="D185" t="s">
+        <v>196</v>
+      </c>
+      <c r="E185">
+        <v>4.3208310106413998</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186" t="s">
+        <v>208</v>
+      </c>
+      <c r="C186" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D186" t="s">
+        <v>196</v>
+      </c>
+      <c r="E186">
+        <v>5.1918833112198401E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>12</v>
+      </c>
+      <c r="B187" t="s">
+        <v>208</v>
+      </c>
+      <c r="C187" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D187" t="s">
+        <v>196</v>
+      </c>
+      <c r="E187">
+        <v>0.78813721493289901</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188" t="s">
+        <v>208</v>
+      </c>
+      <c r="C188" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D188" t="s">
+        <v>196</v>
+      </c>
+      <c r="E188">
+        <v>2.2935425819785902</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189" t="s">
+        <v>208</v>
+      </c>
+      <c r="C189" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D189" t="s">
+        <v>196</v>
+      </c>
+      <c r="E189">
+        <v>4.4916341489795402</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" t="s">
+        <v>208</v>
+      </c>
+      <c r="C190" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D190" t="s">
+        <v>196</v>
+      </c>
+      <c r="E190">
+        <v>5.5044647073995501</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" t="s">
+        <v>208</v>
+      </c>
+      <c r="C191" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D191" t="s">
+        <v>196</v>
+      </c>
+      <c r="E191">
+        <v>5.36909585576291</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192" t="s">
+        <v>208</v>
+      </c>
+      <c r="C192" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D192" t="s">
+        <v>196</v>
+      </c>
+      <c r="E192">
+        <v>4.5647672552559699</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>12</v>
+      </c>
+      <c r="B193" t="s">
+        <v>208</v>
+      </c>
+      <c r="C193" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D193" t="s">
+        <v>196</v>
+      </c>
+      <c r="E193">
+        <v>3.7313173590858102</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>83</v>
+      </c>
+      <c r="B194" t="s">
+        <v>197</v>
+      </c>
+      <c r="C194" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="D194" t="s">
+        <v>43</v>
+      </c>
+      <c r="E194">
+        <v>0.18146874962283999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>83</v>
+      </c>
+      <c r="B195" t="s">
+        <v>197</v>
+      </c>
+      <c r="C195" s="5">
+        <v>3.1599999999999999E-11</v>
+      </c>
+      <c r="D195" t="s">
+        <v>43</v>
+      </c>
+      <c r="E195">
+        <v>9.8209099176203504E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>83</v>
+      </c>
+      <c r="B196" t="s">
+        <v>197</v>
+      </c>
+      <c r="C196" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="D196" t="s">
+        <v>43</v>
+      </c>
+      <c r="E196">
+        <v>0.27648005524511099</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>83</v>
+      </c>
+      <c r="B197" t="s">
+        <v>197</v>
+      </c>
+      <c r="C197" s="5">
+        <v>3.1599999999999999E-10</v>
+      </c>
+      <c r="D197" t="s">
+        <v>43</v>
+      </c>
+      <c r="E197">
+        <v>1.0291385425428801</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>83</v>
+      </c>
+      <c r="B198" t="s">
+        <v>197</v>
+      </c>
+      <c r="C198" s="5">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="D198" t="s">
+        <v>43</v>
+      </c>
+      <c r="E198">
+        <v>3.5612825597461102</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>83</v>
+      </c>
+      <c r="B199" t="s">
+        <v>197</v>
+      </c>
+      <c r="C199" s="5">
+        <v>3.1599999999999998E-9</v>
+      </c>
+      <c r="D199" t="s">
+        <v>43</v>
+      </c>
+      <c r="E199">
+        <v>3.3104221097986102</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>83</v>
+      </c>
+      <c r="B200" t="s">
+        <v>197</v>
+      </c>
+      <c r="C200" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D200" t="s">
+        <v>43</v>
+      </c>
+      <c r="E200">
+        <v>4.1877174082444704</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>83</v>
+      </c>
+      <c r="B201" t="s">
+        <v>197</v>
+      </c>
+      <c r="C201" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D201" t="s">
+        <v>43</v>
+      </c>
+      <c r="E201">
+        <v>3.78418934044327</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>15</v>
+      </c>
+      <c r="B202" t="s">
+        <v>197</v>
+      </c>
+      <c r="C202" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D202" t="s">
+        <v>43</v>
+      </c>
+      <c r="E202">
+        <v>0.165704372539276</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>15</v>
+      </c>
+      <c r="B203" t="s">
+        <v>197</v>
+      </c>
+      <c r="C203" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D203" t="s">
+        <v>43</v>
+      </c>
+      <c r="E203">
+        <v>8.6540878390965192E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>15</v>
+      </c>
+      <c r="B204" t="s">
+        <v>197</v>
+      </c>
+      <c r="C204" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D204" t="s">
+        <v>43</v>
+      </c>
+      <c r="E204">
+        <v>5.4202968060370699E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>15</v>
+      </c>
+      <c r="B205" t="s">
+        <v>197</v>
+      </c>
+      <c r="C205" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D205" t="s">
+        <v>43</v>
+      </c>
+      <c r="E205">
+        <v>0.72921079987343096</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206" t="s">
+        <v>197</v>
+      </c>
+      <c r="C206" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D206" t="s">
+        <v>43</v>
+      </c>
+      <c r="E206">
+        <v>3.8742355127200701</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>15</v>
+      </c>
+      <c r="B207" t="s">
+        <v>197</v>
+      </c>
+      <c r="C207" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D207" t="s">
+        <v>43</v>
+      </c>
+      <c r="E207">
+        <v>3.7964746608706901</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>15</v>
+      </c>
+      <c r="B208" t="s">
+        <v>197</v>
+      </c>
+      <c r="C208" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D208" t="s">
+        <v>43</v>
+      </c>
+      <c r="E208">
+        <v>4.0508173159418996</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>15</v>
+      </c>
+      <c r="B209" t="s">
+        <v>197</v>
+      </c>
+      <c r="C209">
+        <v>1E-4</v>
+      </c>
+      <c r="D209" t="s">
+        <v>43</v>
+      </c>
+      <c r="E209">
+        <v>3.6532083671575002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>83</v>
+      </c>
+      <c r="B210" t="s">
+        <v>198</v>
+      </c>
+      <c r="C210" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="D210" t="s">
+        <v>43</v>
+      </c>
+      <c r="E210">
+        <v>0.189450056116723</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>83</v>
+      </c>
+      <c r="B211" t="s">
+        <v>198</v>
+      </c>
+      <c r="C211" s="5">
+        <v>3.1599999999999999E-11</v>
+      </c>
+      <c r="D211" t="s">
+        <v>43</v>
+      </c>
+      <c r="E211">
+        <v>5.6385875213035598E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>83</v>
+      </c>
+      <c r="B212" t="s">
+        <v>198</v>
+      </c>
+      <c r="C212" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="D212" t="s">
+        <v>43</v>
+      </c>
+      <c r="E212">
+        <v>0.241472336534065</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>83</v>
+      </c>
+      <c r="B213" t="s">
+        <v>198</v>
+      </c>
+      <c r="C213" s="5">
+        <v>3.1599999999999999E-10</v>
+      </c>
+      <c r="D213" t="s">
+        <v>43</v>
+      </c>
+      <c r="E213">
+        <v>0.68116764351332304</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>83</v>
+      </c>
+      <c r="B214" t="s">
+        <v>198</v>
+      </c>
+      <c r="C214" s="5">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="D214" t="s">
+        <v>43</v>
+      </c>
+      <c r="E214">
+        <v>3.23300494658519</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>83</v>
+      </c>
+      <c r="B215" t="s">
+        <v>198</v>
+      </c>
+      <c r="C215" s="5">
+        <v>3.1599999999999998E-9</v>
+      </c>
+      <c r="D215" t="s">
+        <v>43</v>
+      </c>
+      <c r="E215">
+        <v>3.5824895040944398</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>83</v>
+      </c>
+      <c r="B216" t="s">
+        <v>198</v>
+      </c>
+      <c r="C216" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D216" t="s">
+        <v>43</v>
+      </c>
+      <c r="E216">
+        <v>4.40571143534107</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>83</v>
+      </c>
+      <c r="B217" t="s">
+        <v>198</v>
+      </c>
+      <c r="C217" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D217" t="s">
+        <v>43</v>
+      </c>
+      <c r="E217">
+        <v>4.2645913871222501</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>15</v>
+      </c>
+      <c r="B218" t="s">
+        <v>198</v>
+      </c>
+      <c r="C218" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D218" t="s">
+        <v>43</v>
+      </c>
+      <c r="E218">
+        <v>7.05927588643633E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>15</v>
+      </c>
+      <c r="B219" t="s">
+        <v>198</v>
+      </c>
+      <c r="C219" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D219" t="s">
+        <v>43</v>
+      </c>
+      <c r="E219">
+        <v>4.6919815438334197E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>15</v>
+      </c>
+      <c r="B220" t="s">
+        <v>198</v>
+      </c>
+      <c r="C220" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D220" t="s">
+        <v>43</v>
+      </c>
+      <c r="E220">
+        <v>-4.0019536933115904E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>15</v>
+      </c>
+      <c r="B221" t="s">
+        <v>198</v>
+      </c>
+      <c r="C221" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D221" t="s">
+        <v>43</v>
+      </c>
+      <c r="E221">
+        <v>0.22567028307768999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>15</v>
+      </c>
+      <c r="B222" t="s">
+        <v>198</v>
+      </c>
+      <c r="C222" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D222" t="s">
+        <v>43</v>
+      </c>
+      <c r="E222">
+        <v>2.5903063557384498</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>15</v>
+      </c>
+      <c r="B223" t="s">
+        <v>198</v>
+      </c>
+      <c r="C223" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D223" t="s">
+        <v>43</v>
+      </c>
+      <c r="E223">
+        <v>4.7067755746768096</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>15</v>
+      </c>
+      <c r="B224" t="s">
+        <v>198</v>
+      </c>
+      <c r="C224" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D224" t="s">
+        <v>43</v>
+      </c>
+      <c r="E224">
+        <v>4.4889959263415999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>15</v>
+      </c>
+      <c r="B225" t="s">
+        <v>198</v>
+      </c>
+      <c r="C225">
+        <v>1E-4</v>
+      </c>
+      <c r="D225" t="s">
+        <v>43</v>
+      </c>
+      <c r="E225">
+        <v>4.0303092654944503</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>83</v>
+      </c>
+      <c r="B226" t="s">
+        <v>199</v>
+      </c>
+      <c r="C226" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="D226" t="s">
+        <v>43</v>
+      </c>
+      <c r="E226">
+        <v>0.15151394311666999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>83</v>
+      </c>
+      <c r="B227" t="s">
+        <v>199</v>
+      </c>
+      <c r="C227" s="5">
+        <v>3.1599999999999999E-11</v>
+      </c>
+      <c r="D227" t="s">
+        <v>43</v>
+      </c>
+      <c r="E227">
+        <v>0.14410391415588999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>83</v>
+      </c>
+      <c r="B228" t="s">
+        <v>199</v>
+      </c>
+      <c r="C228" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="D228" t="s">
+        <v>43</v>
+      </c>
+      <c r="E228">
+        <v>0.40183847902853498</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>83</v>
+      </c>
+      <c r="B229" t="s">
+        <v>199</v>
+      </c>
+      <c r="C229" s="5">
+        <v>3.1599999999999999E-10</v>
+      </c>
+      <c r="D229" t="s">
+        <v>43</v>
+      </c>
+      <c r="E229">
+        <v>0.52650869143844703</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>83</v>
+      </c>
+      <c r="B230" t="s">
+        <v>199</v>
+      </c>
+      <c r="C230" s="5">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="D230" t="s">
+        <v>43</v>
+      </c>
+      <c r="E230">
+        <v>2.0327184893966002</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>83</v>
+      </c>
+      <c r="B231" t="s">
+        <v>199</v>
+      </c>
+      <c r="C231" s="5">
+        <v>3.1599999999999998E-9</v>
+      </c>
+      <c r="D231" t="s">
+        <v>43</v>
+      </c>
+      <c r="E231">
+        <v>2.4235245276516002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>83</v>
+      </c>
+      <c r="B232" t="s">
+        <v>199</v>
+      </c>
+      <c r="C232" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D232" t="s">
+        <v>43</v>
+      </c>
+      <c r="E232">
+        <v>3.7245222397001201</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>83</v>
+      </c>
+      <c r="B233" t="s">
+        <v>199</v>
+      </c>
+      <c r="C233" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D233" t="s">
+        <v>43</v>
+      </c>
+      <c r="E233">
+        <v>3.4330188497863401</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>15</v>
+      </c>
+      <c r="B234" t="s">
+        <v>199</v>
+      </c>
+      <c r="C234" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D234" t="s">
+        <v>43</v>
+      </c>
+      <c r="E234">
+        <v>8.0240658599614198E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>15</v>
+      </c>
+      <c r="B235" t="s">
+        <v>199</v>
+      </c>
+      <c r="C235" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D235" t="s">
+        <v>43</v>
+      </c>
+      <c r="E235">
+        <v>4.1783420078002502E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>15</v>
+      </c>
+      <c r="B236" t="s">
+        <v>199</v>
+      </c>
+      <c r="C236" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D236" t="s">
+        <v>43</v>
+      </c>
+      <c r="E236">
+        <v>0.124894521378069</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>15</v>
+      </c>
+      <c r="B237" t="s">
+        <v>199</v>
+      </c>
+      <c r="C237" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D237" t="s">
+        <v>43</v>
+      </c>
+      <c r="E237">
+        <v>0.74282798777765402</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>15</v>
+      </c>
+      <c r="B238" t="s">
+        <v>199</v>
+      </c>
+      <c r="C238" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D238" t="s">
+        <v>43</v>
+      </c>
+      <c r="E238">
+        <v>3.23203801431732</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>15</v>
+      </c>
+      <c r="B239" t="s">
+        <v>199</v>
+      </c>
+      <c r="C239" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D239" t="s">
+        <v>43</v>
+      </c>
+      <c r="E239">
+        <v>4.5361233571148301</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>15</v>
+      </c>
+      <c r="B240" t="s">
+        <v>199</v>
+      </c>
+      <c r="C240" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D240" t="s">
+        <v>43</v>
+      </c>
+      <c r="E240">
+        <v>4.3885650848493203</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>15</v>
+      </c>
+      <c r="B241" t="s">
+        <v>199</v>
+      </c>
+      <c r="C241">
+        <v>1E-4</v>
+      </c>
+      <c r="D241" t="s">
+        <v>43</v>
+      </c>
+      <c r="E241">
+        <v>3.9286377039876399</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>83</v>
+      </c>
+      <c r="B242" t="s">
+        <v>200</v>
+      </c>
+      <c r="C242" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="D242" t="s">
+        <v>43</v>
+      </c>
+      <c r="E242">
+        <v>7.7253016058592305E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>83</v>
+      </c>
+      <c r="B243" t="s">
+        <v>200</v>
+      </c>
+      <c r="C243" s="5">
+        <v>3.1599999999999999E-11</v>
+      </c>
+      <c r="D243" t="s">
+        <v>43</v>
+      </c>
+      <c r="E243">
+        <v>4.8136736893256898E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>83</v>
+      </c>
+      <c r="B244" t="s">
+        <v>200</v>
+      </c>
+      <c r="C244" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="D244" t="s">
+        <v>43</v>
+      </c>
+      <c r="E244">
+        <v>0.176071249151148</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>83</v>
+      </c>
+      <c r="B245" t="s">
+        <v>200</v>
+      </c>
+      <c r="C245" s="5">
+        <v>3.1599999999999999E-10</v>
+      </c>
+      <c r="D245" t="s">
+        <v>43</v>
+      </c>
+      <c r="E245">
+        <v>0.46421978008430498</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>83</v>
+      </c>
+      <c r="B246" t="s">
+        <v>200</v>
+      </c>
+      <c r="C246" s="5">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="D246" t="s">
+        <v>43</v>
+      </c>
+      <c r="E246">
+        <v>2.5889201775681099</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>83</v>
+      </c>
+      <c r="B247" t="s">
+        <v>200</v>
+      </c>
+      <c r="C247" s="5">
+        <v>3.1599999999999998E-9</v>
+      </c>
+      <c r="D247" t="s">
+        <v>43</v>
+      </c>
+      <c r="E247">
+        <v>3.2113341956269599</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>83</v>
+      </c>
+      <c r="B248" t="s">
+        <v>200</v>
+      </c>
+      <c r="C248" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D248" t="s">
+        <v>43</v>
+      </c>
+      <c r="E248">
+        <v>4.9865478084968498</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>83</v>
+      </c>
+      <c r="B249" t="s">
+        <v>200</v>
+      </c>
+      <c r="C249" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D249" t="s">
+        <v>43</v>
+      </c>
+      <c r="E249">
+        <v>5.1736158697642098</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>15</v>
+      </c>
+      <c r="B250" t="s">
+        <v>200</v>
+      </c>
+      <c r="C250" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D250" t="s">
+        <v>43</v>
+      </c>
+      <c r="E250">
+        <v>5.4348127593430301E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" t="s">
+        <v>200</v>
+      </c>
+      <c r="C251" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D251" t="s">
+        <v>43</v>
+      </c>
+      <c r="E251">
+        <v>2.9352570905500801E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>15</v>
+      </c>
+      <c r="B252" t="s">
+        <v>200</v>
+      </c>
+      <c r="C252" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D252" t="s">
+        <v>43</v>
+      </c>
+      <c r="E252">
+        <v>6.01557676245386E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>15</v>
+      </c>
+      <c r="B253" t="s">
+        <v>200</v>
+      </c>
+      <c r="C253" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D253" t="s">
+        <v>43</v>
+      </c>
+      <c r="E253">
+        <v>0.63997460377470905</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>15</v>
+      </c>
+      <c r="B254" t="s">
+        <v>200</v>
+      </c>
+      <c r="C254" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D254" t="s">
+        <v>43</v>
+      </c>
+      <c r="E254">
+        <v>3.33650820394648</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>15</v>
+      </c>
+      <c r="B255" t="s">
+        <v>200</v>
+      </c>
+      <c r="C255" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D255" t="s">
+        <v>43</v>
+      </c>
+      <c r="E255">
+        <v>5.5643704931203199</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>15</v>
+      </c>
+      <c r="B256" t="s">
+        <v>200</v>
+      </c>
+      <c r="C256" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D256" t="s">
+        <v>43</v>
+      </c>
+      <c r="E256">
+        <v>5.5842087257402904</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>15</v>
+      </c>
+      <c r="B257" t="s">
+        <v>200</v>
+      </c>
+      <c r="C257">
+        <v>1E-4</v>
+      </c>
+      <c r="D257" t="s">
+        <v>43</v>
+      </c>
+      <c r="E257">
+        <v>4.9704265476852196</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>83</v>
+      </c>
+      <c r="B258" t="s">
+        <v>201</v>
+      </c>
+      <c r="C258" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="D258" t="s">
+        <v>43</v>
+      </c>
+      <c r="E258">
+        <v>0.204010374078262</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>83</v>
+      </c>
+      <c r="B259" t="s">
+        <v>201</v>
+      </c>
+      <c r="C259" s="5">
+        <v>3.1599999999999999E-11</v>
+      </c>
+      <c r="D259" t="s">
+        <v>43</v>
+      </c>
+      <c r="E259">
+        <v>0.18936349793089</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>83</v>
+      </c>
+      <c r="B260" t="s">
+        <v>201</v>
+      </c>
+      <c r="C260" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="D260" t="s">
+        <v>43</v>
+      </c>
+      <c r="E260">
+        <v>0.44670266095400002</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>83</v>
+      </c>
+      <c r="B261" t="s">
+        <v>201</v>
+      </c>
+      <c r="C261" s="5">
+        <v>3.1599999999999999E-10</v>
+      </c>
+      <c r="D261" t="s">
+        <v>43</v>
+      </c>
+      <c r="E261">
+        <v>0.91155849608046602</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>83</v>
+      </c>
+      <c r="B262" t="s">
+        <v>201</v>
+      </c>
+      <c r="C262" s="5">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="D262" t="s">
+        <v>43</v>
+      </c>
+      <c r="E262">
+        <v>3.4928506334594802</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>83</v>
+      </c>
+      <c r="B263" t="s">
+        <v>201</v>
+      </c>
+      <c r="C263" s="5">
+        <v>3.1599999999999998E-9</v>
+      </c>
+      <c r="D263" t="s">
+        <v>43</v>
+      </c>
+      <c r="E263">
+        <v>4.6254916789418798</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>83</v>
+      </c>
+      <c r="B264" t="s">
+        <v>201</v>
+      </c>
+      <c r="C264" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D264" t="s">
+        <v>43</v>
+      </c>
+      <c r="E264">
+        <v>4.7229293167180399</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>83</v>
+      </c>
+      <c r="B265" t="s">
+        <v>201</v>
+      </c>
+      <c r="C265" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D265" t="s">
+        <v>43</v>
+      </c>
+      <c r="E265">
+        <v>4.6594385534801903</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>15</v>
+      </c>
+      <c r="B266" t="s">
+        <v>201</v>
+      </c>
+      <c r="C266" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D266" t="s">
+        <v>43</v>
+      </c>
+      <c r="E266">
+        <v>-9.3984000046806009E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>15</v>
+      </c>
+      <c r="B267" t="s">
+        <v>201</v>
+      </c>
+      <c r="C267" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D267" t="s">
+        <v>43</v>
+      </c>
+      <c r="E267">
+        <v>0.14069660794556099</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>15</v>
+      </c>
+      <c r="B268" t="s">
+        <v>201</v>
+      </c>
+      <c r="C268" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D268" t="s">
+        <v>43</v>
+      </c>
+      <c r="E268">
+        <v>0.111667619915539</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>15</v>
+      </c>
+      <c r="B269" t="s">
+        <v>201</v>
+      </c>
+      <c r="C269" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D269" t="s">
+        <v>43</v>
+      </c>
+      <c r="E269">
+        <v>0.57638741594466003</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>15</v>
+      </c>
+      <c r="B270" t="s">
+        <v>201</v>
+      </c>
+      <c r="C270" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D270" t="s">
+        <v>43</v>
+      </c>
+      <c r="E270">
+        <v>2.9599811008049701</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>15</v>
+      </c>
+      <c r="B271" t="s">
+        <v>201</v>
+      </c>
+      <c r="C271" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D271" t="s">
+        <v>43</v>
+      </c>
+      <c r="E271">
+        <v>5.1624102032248604</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>15</v>
+      </c>
+      <c r="B272" t="s">
+        <v>201</v>
+      </c>
+      <c r="C272" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D272" t="s">
+        <v>43</v>
+      </c>
+      <c r="E272">
+        <v>5.5971604398304899</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>15</v>
+      </c>
+      <c r="B273" t="s">
+        <v>201</v>
+      </c>
+      <c r="C273">
+        <v>1E-4</v>
+      </c>
+      <c r="D273" t="s">
+        <v>43</v>
+      </c>
+      <c r="E273">
+        <v>4.5773982010657903</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>83</v>
+      </c>
+      <c r="B274" t="s">
+        <v>202</v>
+      </c>
+      <c r="C274" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="D274" t="s">
+        <v>43</v>
+      </c>
+      <c r="E274">
+        <v>5.2259273979074698E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>83</v>
+      </c>
+      <c r="B275" t="s">
+        <v>202</v>
+      </c>
+      <c r="C275" s="5">
+        <v>3.1599999999999999E-11</v>
+      </c>
+      <c r="D275" t="s">
+        <v>43</v>
+      </c>
+      <c r="E275">
+        <v>1.1989823102545301E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>83</v>
+      </c>
+      <c r="B276" t="s">
+        <v>202</v>
+      </c>
+      <c r="C276" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="D276" t="s">
+        <v>43</v>
+      </c>
+      <c r="E276">
+        <v>6.02431899807961E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>83</v>
+      </c>
+      <c r="B277" t="s">
+        <v>202</v>
+      </c>
+      <c r="C277" s="5">
+        <v>3.1599999999999999E-10</v>
+      </c>
+      <c r="D277" t="s">
+        <v>43</v>
+      </c>
+      <c r="E277">
+        <v>0.24871656846652801</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>83</v>
+      </c>
+      <c r="B278" t="s">
+        <v>202</v>
+      </c>
+      <c r="C278" s="5">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="D278" t="s">
+        <v>43</v>
+      </c>
+      <c r="E278">
+        <v>1.7970117826446701</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>83</v>
+      </c>
+      <c r="B279" t="s">
+        <v>202</v>
+      </c>
+      <c r="C279" s="5">
+        <v>3.1599999999999998E-9</v>
+      </c>
+      <c r="D279" t="s">
+        <v>43</v>
+      </c>
+      <c r="E279">
+        <v>2.63317159999835</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>83</v>
+      </c>
+      <c r="B280" t="s">
+        <v>202</v>
+      </c>
+      <c r="C280" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D280" t="s">
+        <v>43</v>
+      </c>
+      <c r="E280">
+        <v>4.5244843292152197</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>83</v>
+      </c>
+      <c r="B281" t="s">
+        <v>202</v>
+      </c>
+      <c r="C281" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D281" t="s">
+        <v>43</v>
+      </c>
+      <c r="E281">
+        <v>4.7493264414108101</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>15</v>
+      </c>
+      <c r="B282" t="s">
+        <v>202</v>
+      </c>
+      <c r="C282" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D282" t="s">
+        <v>43</v>
+      </c>
+      <c r="E282">
+        <v>-1.5418100260642199E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>15</v>
+      </c>
+      <c r="B283" t="s">
+        <v>202</v>
+      </c>
+      <c r="C283" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D283" t="s">
+        <v>43</v>
+      </c>
+      <c r="E283">
+        <v>5.7430502611226099E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>15</v>
+      </c>
+      <c r="B284" t="s">
+        <v>202</v>
+      </c>
+      <c r="C284" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D284" t="s">
+        <v>43</v>
+      </c>
+      <c r="E284">
+        <v>-4.0697985521291502E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>15</v>
+      </c>
+      <c r="B285" t="s">
+        <v>202</v>
+      </c>
+      <c r="C285" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D285" t="s">
+        <v>43</v>
+      </c>
+      <c r="E285">
+        <v>6.5127661705513207E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>15</v>
+      </c>
+      <c r="B286" t="s">
+        <v>202</v>
+      </c>
+      <c r="C286" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D286" t="s">
+        <v>43</v>
+      </c>
+      <c r="E286">
+        <v>1.3684954317841</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>15</v>
+      </c>
+      <c r="B287" t="s">
+        <v>202</v>
+      </c>
+      <c r="C287" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D287" t="s">
+        <v>43</v>
+      </c>
+      <c r="E287">
+        <v>4.7764695605484704</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>15</v>
+      </c>
+      <c r="B288" t="s">
+        <v>202</v>
+      </c>
+      <c r="C288" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D288" t="s">
+        <v>43</v>
+      </c>
+      <c r="E288">
+        <v>5.1694897968050597</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>15</v>
+      </c>
+      <c r="B289" t="s">
+        <v>202</v>
+      </c>
+      <c r="C289">
+        <v>1E-4</v>
+      </c>
+      <c r="D289" t="s">
+        <v>43</v>
+      </c>
+      <c r="E289">
+        <v>4.3017332099714602</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>83</v>
+      </c>
+      <c r="B290" t="s">
+        <v>203</v>
+      </c>
+      <c r="C290" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="D290" t="s">
+        <v>43</v>
+      </c>
+      <c r="E290">
+        <v>9.3937949668413095E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>83</v>
+      </c>
+      <c r="B291" t="s">
+        <v>203</v>
+      </c>
+      <c r="C291" s="5">
+        <v>3.1599999999999999E-11</v>
+      </c>
+      <c r="D291" t="s">
+        <v>43</v>
+      </c>
+      <c r="E291">
+        <v>7.0883243609286301E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>83</v>
+      </c>
+      <c r="B292" t="s">
+        <v>203</v>
+      </c>
+      <c r="C292" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="D292" t="s">
+        <v>43</v>
+      </c>
+      <c r="E292">
+        <v>0.22524656548858299</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>83</v>
+      </c>
+      <c r="B293" t="s">
+        <v>203</v>
+      </c>
+      <c r="C293" s="5">
+        <v>3.1599999999999999E-10</v>
+      </c>
+      <c r="D293" t="s">
+        <v>43</v>
+      </c>
+      <c r="E293">
+        <v>0.84078253692193305</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>83</v>
+      </c>
+      <c r="B294" t="s">
+        <v>203</v>
+      </c>
+      <c r="C294" s="5">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="D294" t="s">
+        <v>43</v>
+      </c>
+      <c r="E294">
+        <v>3.7067723411517202</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>83</v>
+      </c>
+      <c r="B295" t="s">
+        <v>203</v>
+      </c>
+      <c r="C295" s="5">
+        <v>3.1599999999999998E-9</v>
+      </c>
+      <c r="D295" t="s">
+        <v>43</v>
+      </c>
+      <c r="E295">
+        <v>3.7784004144666299</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>83</v>
+      </c>
+      <c r="B296" t="s">
+        <v>203</v>
+      </c>
+      <c r="C296" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D296" t="s">
+        <v>43</v>
+      </c>
+      <c r="E296">
+        <v>4.3978730029657198</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>83</v>
+      </c>
+      <c r="B297" t="s">
+        <v>203</v>
+      </c>
+      <c r="C297" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D297" t="s">
+        <v>43</v>
+      </c>
+      <c r="E297">
+        <v>4.0828804070693199</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>15</v>
+      </c>
+      <c r="B298" t="s">
+        <v>203</v>
+      </c>
+      <c r="C298" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D298" t="s">
+        <v>43</v>
+      </c>
+      <c r="E298">
+        <v>-4.4554482372250202E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>15</v>
+      </c>
+      <c r="B299" t="s">
+        <v>203</v>
+      </c>
+      <c r="C299" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D299" t="s">
+        <v>43</v>
+      </c>
+      <c r="E299">
+        <v>-5.9652326683464797E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>15</v>
+      </c>
+      <c r="B300" t="s">
+        <v>203</v>
+      </c>
+      <c r="C300" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D300" t="s">
+        <v>43</v>
+      </c>
+      <c r="E300">
+        <v>1.36493188088707E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>15</v>
+      </c>
+      <c r="B301" t="s">
+        <v>203</v>
+      </c>
+      <c r="C301" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D301" t="s">
+        <v>43</v>
+      </c>
+      <c r="E301">
+        <v>0.33512815422292302</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>15</v>
+      </c>
+      <c r="B302" t="s">
+        <v>203</v>
+      </c>
+      <c r="C302" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D302" t="s">
+        <v>43</v>
+      </c>
+      <c r="E302">
+        <v>3.18469737001345</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>15</v>
+      </c>
+      <c r="B303" t="s">
+        <v>203</v>
+      </c>
+      <c r="C303" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D303" t="s">
+        <v>43</v>
+      </c>
+      <c r="E303">
+        <v>4.45939029348534</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>15</v>
+      </c>
+      <c r="B304" t="s">
+        <v>203</v>
+      </c>
+      <c r="C304" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D304" t="s">
+        <v>43</v>
+      </c>
+      <c r="E304">
+        <v>4.5524086793227703</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>15</v>
+      </c>
+      <c r="B305" t="s">
+        <v>203</v>
+      </c>
+      <c r="C305">
+        <v>1E-4</v>
+      </c>
+      <c r="D305" t="s">
+        <v>43</v>
+      </c>
+      <c r="E305">
+        <v>4.2556815786718296</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>83</v>
+      </c>
+      <c r="B306" t="s">
+        <v>204</v>
+      </c>
+      <c r="C306" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="D306" t="s">
+        <v>43</v>
+      </c>
+      <c r="E306">
+        <v>-1.0850341211178301E-3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>83</v>
+      </c>
+      <c r="B307" t="s">
+        <v>204</v>
+      </c>
+      <c r="C307" s="5">
+        <v>3.1599999999999999E-11</v>
+      </c>
+      <c r="D307" t="s">
+        <v>43</v>
+      </c>
+      <c r="E307">
+        <v>1.47012818054873E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>83</v>
+      </c>
+      <c r="B308" t="s">
+        <v>204</v>
+      </c>
+      <c r="C308" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="D308" t="s">
+        <v>43</v>
+      </c>
+      <c r="E308">
+        <v>-2.7359816279765699E-2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>83</v>
+      </c>
+      <c r="B309" t="s">
+        <v>204</v>
+      </c>
+      <c r="C309" s="5">
+        <v>3.1599999999999999E-10</v>
+      </c>
+      <c r="D309" t="s">
+        <v>43</v>
+      </c>
+      <c r="E309">
+        <v>-2.53959429236012E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>83</v>
+      </c>
+      <c r="B310" t="s">
+        <v>204</v>
+      </c>
+      <c r="C310" s="5">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="D310" t="s">
+        <v>43</v>
+      </c>
+      <c r="E310">
+        <v>0.18610329182159599</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>83</v>
+      </c>
+      <c r="B311" t="s">
+        <v>204</v>
+      </c>
+      <c r="C311" s="5">
+        <v>3.1599999999999998E-9</v>
+      </c>
+      <c r="D311" t="s">
+        <v>43</v>
+      </c>
+      <c r="E311">
+        <v>0.193454523540632</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>83</v>
+      </c>
+      <c r="B312" t="s">
+        <v>204</v>
+      </c>
+      <c r="C312" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D312" t="s">
+        <v>43</v>
+      </c>
+      <c r="E312">
+        <v>2.09546498276146</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>83</v>
+      </c>
+      <c r="B313" t="s">
+        <v>204</v>
+      </c>
+      <c r="C313" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D313" t="s">
+        <v>43</v>
+      </c>
+      <c r="E313">
+        <v>3.2716771236227</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>15</v>
+      </c>
+      <c r="B314" t="s">
+        <v>204</v>
+      </c>
+      <c r="C314" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D314" t="s">
+        <v>43</v>
+      </c>
+      <c r="E314">
+        <v>-2.7975742264663699E-2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>15</v>
+      </c>
+      <c r="B315" t="s">
+        <v>204</v>
+      </c>
+      <c r="C315" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D315" t="s">
+        <v>43</v>
+      </c>
+      <c r="E315">
+        <v>-4.6862071277849901E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>15</v>
+      </c>
+      <c r="B316" t="s">
+        <v>204</v>
+      </c>
+      <c r="C316" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D316" t="s">
+        <v>43</v>
+      </c>
+      <c r="E316">
+        <v>-6.5680161009255902E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>15</v>
+      </c>
+      <c r="B317" t="s">
+        <v>204</v>
+      </c>
+      <c r="C317" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D317" t="s">
+        <v>43</v>
+      </c>
+      <c r="E317">
+        <v>-0.13093375265535001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>15</v>
+      </c>
+      <c r="B318" t="s">
+        <v>204</v>
+      </c>
+      <c r="C318" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D318" t="s">
+        <v>43</v>
+      </c>
+      <c r="E318">
+        <v>2.5120622531311001E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>15</v>
+      </c>
+      <c r="B319" t="s">
+        <v>204</v>
+      </c>
+      <c r="C319" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D319" t="s">
+        <v>43</v>
+      </c>
+      <c r="E319">
+        <v>1.94887282590682</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>15</v>
+      </c>
+      <c r="B320" t="s">
+        <v>204</v>
+      </c>
+      <c r="C320" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D320" t="s">
+        <v>43</v>
+      </c>
+      <c r="E320">
+        <v>3.37020844294207</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>15</v>
+      </c>
+      <c r="B321" t="s">
+        <v>204</v>
+      </c>
+      <c r="C321">
+        <v>1E-4</v>
+      </c>
+      <c r="D321" t="s">
+        <v>43</v>
+      </c>
+      <c r="E321">
+        <v>3.3705150765978602</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>83</v>
+      </c>
+      <c r="B322" t="s">
+        <v>205</v>
+      </c>
+      <c r="C322" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="D322" t="s">
+        <v>43</v>
+      </c>
+      <c r="E322">
+        <v>2.8204570478223101E-3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>83</v>
+      </c>
+      <c r="B323" t="s">
+        <v>205</v>
+      </c>
+      <c r="C323" s="5">
+        <v>3.1599999999999999E-11</v>
+      </c>
+      <c r="D323" t="s">
+        <v>43</v>
+      </c>
+      <c r="E323">
+        <v>9.6187161699147102E-3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>83</v>
+      </c>
+      <c r="B324" t="s">
+        <v>205</v>
+      </c>
+      <c r="C324" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="D324" t="s">
+        <v>43</v>
+      </c>
+      <c r="E324">
+        <v>-4.4113372652586497E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>83</v>
+      </c>
+      <c r="B325" t="s">
+        <v>205</v>
+      </c>
+      <c r="C325" s="5">
+        <v>3.1599999999999999E-10</v>
+      </c>
+      <c r="D325" t="s">
+        <v>43</v>
+      </c>
+      <c r="E325">
+        <v>1.1716373953817799E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>83</v>
+      </c>
+      <c r="B326" t="s">
+        <v>205</v>
+      </c>
+      <c r="C326" s="5">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="D326" t="s">
+        <v>43</v>
+      </c>
+      <c r="E326">
+        <v>-4.3315021135381701E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>83</v>
+      </c>
+      <c r="B327" t="s">
+        <v>205</v>
+      </c>
+      <c r="C327" s="5">
+        <v>3.1599999999999998E-9</v>
+      </c>
+      <c r="D327" t="s">
+        <v>43</v>
+      </c>
+      <c r="E327">
+        <v>0.55619210868745095</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>83</v>
+      </c>
+      <c r="B328" t="s">
+        <v>205</v>
+      </c>
+      <c r="C328" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D328" t="s">
+        <v>43</v>
+      </c>
+      <c r="E328">
+        <v>5.4307171400632903</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>83</v>
+      </c>
+      <c r="B329" t="s">
+        <v>205</v>
+      </c>
+      <c r="C329" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D329" t="s">
+        <v>43</v>
+      </c>
+      <c r="E329">
+        <v>5.5758207765809198</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>15</v>
+      </c>
+      <c r="B330" t="s">
+        <v>205</v>
+      </c>
+      <c r="C330" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D330" t="s">
+        <v>43</v>
+      </c>
+      <c r="E330">
+        <v>0.144844737713375</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>15</v>
+      </c>
+      <c r="B331" t="s">
+        <v>205</v>
+      </c>
+      <c r="C331" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D331" t="s">
+        <v>43</v>
+      </c>
+      <c r="E331">
+        <v>8.6946206795660702E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>15</v>
+      </c>
+      <c r="B332" t="s">
+        <v>205</v>
+      </c>
+      <c r="C332" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D332" t="s">
+        <v>43</v>
+      </c>
+      <c r="E332">
+        <v>9.7544214911032801E-4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>15</v>
+      </c>
+      <c r="B333" t="s">
+        <v>205</v>
+      </c>
+      <c r="C333" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D333" t="s">
+        <v>43</v>
+      </c>
+      <c r="E333">
+        <v>0.185518798555557</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>15</v>
+      </c>
+      <c r="B334" t="s">
+        <v>205</v>
+      </c>
+      <c r="C334" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D334" t="s">
+        <v>43</v>
+      </c>
+      <c r="E334">
+        <v>2.8673360179246501</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>15</v>
+      </c>
+      <c r="B335" t="s">
+        <v>205</v>
+      </c>
+      <c r="C335" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D335" t="s">
+        <v>43</v>
+      </c>
+      <c r="E335">
+        <v>6.7366137768811996</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>15</v>
+      </c>
+      <c r="B336" t="s">
+        <v>205</v>
+      </c>
+      <c r="C336" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D336" t="s">
+        <v>43</v>
+      </c>
+      <c r="E336">
+        <v>5.3855489232119602</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>15</v>
+      </c>
+      <c r="B337" t="s">
+        <v>205</v>
+      </c>
+      <c r="C337">
+        <v>1E-4</v>
+      </c>
+      <c r="D337" t="s">
+        <v>43</v>
+      </c>
+      <c r="E337">
+        <v>5.4334702256750598</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>83</v>
+      </c>
+      <c r="B338" t="s">
+        <v>206</v>
+      </c>
+      <c r="C338" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="D338" t="s">
+        <v>43</v>
+      </c>
+      <c r="E338">
+        <v>4.1784271861345203E-3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>83</v>
+      </c>
+      <c r="B339" t="s">
+        <v>206</v>
+      </c>
+      <c r="C339" s="5">
+        <v>3.1599999999999999E-11</v>
+      </c>
+      <c r="D339" t="s">
+        <v>43</v>
+      </c>
+      <c r="E339">
+        <v>3.8202408730656501E-3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>83</v>
+      </c>
+      <c r="B340" t="s">
+        <v>206</v>
+      </c>
+      <c r="C340" s="5">
+        <v>1E-10</v>
+      </c>
+      <c r="D340" t="s">
+        <v>43</v>
+      </c>
+      <c r="E340">
+        <v>2.92663418890437E-3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>83</v>
+      </c>
+      <c r="B341" t="s">
+        <v>206</v>
+      </c>
+      <c r="C341" s="5">
+        <v>3.1599999999999999E-10</v>
+      </c>
+      <c r="D341" t="s">
+        <v>43</v>
+      </c>
+      <c r="E341">
+        <v>2.70242690850921E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>83</v>
+      </c>
+      <c r="B342" t="s">
+        <v>206</v>
+      </c>
+      <c r="C342" s="5">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="D342" t="s">
+        <v>43</v>
+      </c>
+      <c r="E342">
+        <v>5.4608333388417703E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>83</v>
+      </c>
+      <c r="B343" t="s">
+        <v>206</v>
+      </c>
+      <c r="C343" s="5">
+        <v>3.1599999999999998E-9</v>
+      </c>
+      <c r="D343" t="s">
+        <v>43</v>
+      </c>
+      <c r="E343">
+        <v>0.99885314278537596</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>83</v>
+      </c>
+      <c r="B344" t="s">
+        <v>206</v>
+      </c>
+      <c r="C344" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D344" t="s">
+        <v>43</v>
+      </c>
+      <c r="E344">
+        <v>4.92982894641169</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>83</v>
+      </c>
+      <c r="B345" t="s">
+        <v>206</v>
+      </c>
+      <c r="C345" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D345" t="s">
+        <v>43</v>
+      </c>
+      <c r="E345">
+        <v>5.78510969507479</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>15</v>
+      </c>
+      <c r="B346" t="s">
+        <v>206</v>
+      </c>
+      <c r="C346" s="5">
+        <v>3.1599999999999998E-8</v>
+      </c>
+      <c r="D346" t="s">
+        <v>43</v>
+      </c>
+      <c r="E346">
+        <v>2.1994787914041899E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>15</v>
+      </c>
+      <c r="B347" t="s">
+        <v>206</v>
+      </c>
+      <c r="C347" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D347" t="s">
+        <v>43</v>
+      </c>
+      <c r="E347">
+        <v>3.2325178638710102E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>15</v>
+      </c>
+      <c r="B348" t="s">
+        <v>206</v>
+      </c>
+      <c r="C348" s="5">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="D348" t="s">
+        <v>43</v>
+      </c>
+      <c r="E348">
+        <v>-1.85484324081359E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>15</v>
+      </c>
+      <c r="B349" t="s">
+        <v>206</v>
+      </c>
+      <c r="C349" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D349" t="s">
+        <v>43</v>
+      </c>
+      <c r="E349">
+        <v>0.53923069677359703</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>15</v>
+      </c>
+      <c r="B350" t="s">
+        <v>206</v>
+      </c>
+      <c r="C350" s="5">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="D350" t="s">
+        <v>43</v>
+      </c>
+      <c r="E350">
+        <v>2.9609196836392702</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>15</v>
+      </c>
+      <c r="B351" t="s">
+        <v>206</v>
+      </c>
+      <c r="C351" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D351" t="s">
+        <v>43</v>
+      </c>
+      <c r="E351">
+        <v>5.6371551991962097</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>15</v>
+      </c>
+      <c r="B352" t="s">
+        <v>206</v>
+      </c>
+      <c r="C352" s="5">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D352" t="s">
+        <v>43</v>
+      </c>
+      <c r="E352">
+        <v>5.4973509911887</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>15</v>
+      </c>
+      <c r="B353" t="s">
+        <v>206</v>
+      </c>
+      <c r="C353">
+        <v>1E-4</v>
+      </c>
+      <c r="D353" t="s">
+        <v>43</v>
+      </c>
+      <c r="E353">
+        <v>5.3376122895500497</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1201"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -89550,12 +95613,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="W102" sqref="W102"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
